--- a/ガントチャート1.xlsx
+++ b/ガントチャート1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kanamori\git\office-template\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1F1431D-5587-429B-8AE8-E0967D78F0A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D739542F-E852-44B3-B5DE-BCDC0E22DFDE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="19095" yWindow="0" windowWidth="19410" windowHeight="20985" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -498,7 +498,24 @@
     <cellStyle name="パーセント" xfId="1" builtinId="5"/>
     <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="5">
+  <dxfs count="40">
+    <dxf>
+      <font>
+        <color rgb="FFC00000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFCCCC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -542,8 +559,293 @@
         </patternFill>
       </fill>
     </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFC00000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFCCCC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color rgb="FFFF0000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFFF0000"/>
+        </right>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <fgColor theme="3" tint="0.749961851863155"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFC00000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFCCCC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color rgb="FFFF0000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFFF0000"/>
+        </right>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <fgColor theme="3" tint="0.749961851863155"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFC00000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFCCCC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color rgb="FFFF0000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFFF0000"/>
+        </right>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <fgColor theme="3" tint="0.749961851863155"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color rgb="FFFF0000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFFF0000"/>
+        </right>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <fgColor theme="3" tint="0.749961851863155"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color rgb="FFFF0000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFFF0000"/>
+        </right>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <fgColor theme="3" tint="0.749961851863155"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FFFFCCCC"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -763,8 +1065,8 @@
   </sheetPr>
   <dimension ref="A1:AP21"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E21" sqref="E21"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="K28" sqref="K28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -789,7 +1091,7 @@
         <v>13</v>
       </c>
       <c r="D3" s="7">
-        <v>45952</v>
+        <v>45940</v>
       </c>
     </row>
     <row r="4" spans="1:42" x14ac:dyDescent="0.15">
@@ -802,7 +1104,7 @@
       </c>
       <c r="H4" s="22">
         <f>H5</f>
-        <v>45950</v>
+        <v>45936</v>
       </c>
       <c r="I4" s="23"/>
       <c r="J4" s="23"/>
@@ -812,7 +1114,7 @@
       <c r="N4" s="24"/>
       <c r="O4" s="22">
         <f t="shared" ref="O4" si="0">O5</f>
-        <v>45957</v>
+        <v>45943</v>
       </c>
       <c r="P4" s="23"/>
       <c r="Q4" s="23"/>
@@ -822,7 +1124,7 @@
       <c r="U4" s="24"/>
       <c r="V4" s="22">
         <f t="shared" ref="V4" si="1">V5</f>
-        <v>45964</v>
+        <v>45950</v>
       </c>
       <c r="W4" s="23"/>
       <c r="X4" s="23"/>
@@ -832,7 +1134,7 @@
       <c r="AB4" s="24"/>
       <c r="AC4" s="22">
         <f t="shared" ref="AC4" si="2">AC5</f>
-        <v>45971</v>
+        <v>45957</v>
       </c>
       <c r="AD4" s="23"/>
       <c r="AE4" s="23"/>
@@ -842,7 +1144,7 @@
       <c r="AI4" s="24"/>
       <c r="AJ4" s="22">
         <f t="shared" ref="AJ4" si="3">AJ5</f>
-        <v>45978</v>
+        <v>45964</v>
       </c>
       <c r="AK4" s="23"/>
       <c r="AL4" s="23"/>
@@ -854,143 +1156,143 @@
     <row r="5" spans="1:42" x14ac:dyDescent="0.15">
       <c r="H5" s="8">
         <f>$D$3-WEEKDAY(project_start,3)+(display_week-1)*7</f>
-        <v>45950</v>
+        <v>45936</v>
       </c>
       <c r="I5" s="9">
         <f>H5+1</f>
-        <v>45951</v>
+        <v>45937</v>
       </c>
       <c r="J5" s="9">
         <f t="shared" ref="J5:AB5" si="4">I5+1</f>
-        <v>45952</v>
+        <v>45938</v>
       </c>
       <c r="K5" s="9">
         <f t="shared" si="4"/>
-        <v>45953</v>
+        <v>45939</v>
       </c>
       <c r="L5" s="9">
         <f t="shared" si="4"/>
-        <v>45954</v>
+        <v>45940</v>
       </c>
       <c r="M5" s="9">
         <f t="shared" si="4"/>
-        <v>45955</v>
+        <v>45941</v>
       </c>
       <c r="N5" s="10">
         <f t="shared" si="4"/>
-        <v>45956</v>
+        <v>45942</v>
       </c>
       <c r="O5" s="8">
         <f t="shared" si="4"/>
-        <v>45957</v>
+        <v>45943</v>
       </c>
       <c r="P5" s="9">
         <f t="shared" si="4"/>
-        <v>45958</v>
+        <v>45944</v>
       </c>
       <c r="Q5" s="9">
         <f t="shared" si="4"/>
-        <v>45959</v>
+        <v>45945</v>
       </c>
       <c r="R5" s="9">
         <f t="shared" si="4"/>
-        <v>45960</v>
+        <v>45946</v>
       </c>
       <c r="S5" s="9">
         <f t="shared" si="4"/>
-        <v>45961</v>
+        <v>45947</v>
       </c>
       <c r="T5" s="9">
         <f t="shared" si="4"/>
-        <v>45962</v>
+        <v>45948</v>
       </c>
       <c r="U5" s="10">
         <f t="shared" si="4"/>
-        <v>45963</v>
+        <v>45949</v>
       </c>
       <c r="V5" s="8">
         <f t="shared" si="4"/>
-        <v>45964</v>
+        <v>45950</v>
       </c>
       <c r="W5" s="9">
         <f t="shared" si="4"/>
-        <v>45965</v>
+        <v>45951</v>
       </c>
       <c r="X5" s="9">
         <f t="shared" si="4"/>
-        <v>45966</v>
+        <v>45952</v>
       </c>
       <c r="Y5" s="9">
         <f t="shared" si="4"/>
-        <v>45967</v>
+        <v>45953</v>
       </c>
       <c r="Z5" s="9">
         <f t="shared" si="4"/>
-        <v>45968</v>
+        <v>45954</v>
       </c>
       <c r="AA5" s="9">
         <f t="shared" si="4"/>
-        <v>45969</v>
+        <v>45955</v>
       </c>
       <c r="AB5" s="10">
         <f t="shared" si="4"/>
-        <v>45970</v>
+        <v>45956</v>
       </c>
       <c r="AC5" s="8">
         <f t="shared" ref="AC5:AI5" si="5">AB5+1</f>
-        <v>45971</v>
+        <v>45957</v>
       </c>
       <c r="AD5" s="9">
         <f t="shared" si="5"/>
-        <v>45972</v>
+        <v>45958</v>
       </c>
       <c r="AE5" s="9">
         <f t="shared" si="5"/>
-        <v>45973</v>
+        <v>45959</v>
       </c>
       <c r="AF5" s="9">
         <f t="shared" si="5"/>
-        <v>45974</v>
+        <v>45960</v>
       </c>
       <c r="AG5" s="9">
         <f t="shared" si="5"/>
-        <v>45975</v>
+        <v>45961</v>
       </c>
       <c r="AH5" s="9">
         <f t="shared" si="5"/>
-        <v>45976</v>
+        <v>45962</v>
       </c>
       <c r="AI5" s="10">
         <f t="shared" si="5"/>
-        <v>45977</v>
+        <v>45963</v>
       </c>
       <c r="AJ5" s="8">
         <f t="shared" ref="AJ5:AP5" si="6">AI5+1</f>
-        <v>45978</v>
+        <v>45964</v>
       </c>
       <c r="AK5" s="9">
         <f t="shared" si="6"/>
-        <v>45979</v>
+        <v>45965</v>
       </c>
       <c r="AL5" s="9">
         <f t="shared" si="6"/>
-        <v>45980</v>
+        <v>45966</v>
       </c>
       <c r="AM5" s="9">
         <f t="shared" si="6"/>
-        <v>45981</v>
+        <v>45967</v>
       </c>
       <c r="AN5" s="9">
         <f t="shared" si="6"/>
-        <v>45982</v>
+        <v>45968</v>
       </c>
       <c r="AO5" s="9">
         <f t="shared" si="6"/>
-        <v>45983</v>
+        <v>45969</v>
       </c>
       <c r="AP5" s="10">
         <f t="shared" si="6"/>
-        <v>45984</v>
+        <v>45970</v>
       </c>
     </row>
     <row r="6" spans="1:42" x14ac:dyDescent="0.15">
@@ -1211,14 +1513,14 @@
       </c>
       <c r="B8" s="5"/>
       <c r="C8" s="14">
-        <v>0.8</v>
+        <v>0.3</v>
       </c>
       <c r="D8" s="19">
-        <v>45952</v>
+        <v>45945</v>
       </c>
       <c r="E8" s="20">
         <f t="shared" si="34"/>
-        <v>45957</v>
+        <v>45950</v>
       </c>
       <c r="F8" s="18">
         <v>4</v>
@@ -1701,7 +2003,7 @@
   </mergeCells>
   <phoneticPr fontId="2"/>
   <conditionalFormatting sqref="C7:C16">
-    <cfRule type="dataBar" priority="4">
+    <cfRule type="dataBar" priority="7">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -1715,24 +2017,35 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H5:AP6">
-    <cfRule type="expression" dxfId="4" priority="1">
+    <cfRule type="expression" dxfId="6" priority="4">
       <formula>MATCH(H$5,holiday_dates,0)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H5:AP16">
-    <cfRule type="expression" dxfId="3" priority="2">
+    <cfRule type="expression" dxfId="5" priority="2">
       <formula>NETWORKDAYS(H$5,H$5,holiday_dates)=0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="2" priority="5">
+    <cfRule type="expression" dxfId="4" priority="5">
       <formula>H$5=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H7:AP16">
-    <cfRule type="expression" dxfId="1" priority="3">
+    <cfRule type="expression" dxfId="3" priority="3">
       <formula>1*AND(H$5&gt;=task_start,H$5&lt;=task_start+(task_progress*(task_end-task_start+1))-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="0" priority="6">
-      <formula>AND(task_start&lt;&gt;"",H$5&gt;=$D7,H$5&lt;=$E7)</formula>
+    <cfRule type="expression" priority="6" stopIfTrue="1">
+      <formula>NOT(AND(task_start&lt;&gt;"",H$5&gt;=$D7,H$5&lt;=$E7))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="2" priority="9">
+      <formula>TRUE</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1" priority="8">
+      <formula>AND(task_progress&lt;1,TODAY()&gt;H$5)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E7:E16">
+    <cfRule type="expression" dxfId="0" priority="1">
+      <formula>AND(task_progress&lt;1,E7&lt;=TODAY())</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.39370078740157483" bottom="0.39370078740157483" header="0.31496062992125984" footer="0.31496062992125984"/>
@@ -1768,9 +2081,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DF26688F-F0E0-4ED3-9FCE-D3F1ECABA339}">
   <dimension ref="A1:C881"/>
   <sheetViews>
-    <sheetView topLeftCell="A405" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A881"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
